--- a/documento/listado.xlsx
+++ b/documento/listado.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>nombre</t>
   </si>
@@ -33,18 +33,6 @@
   </si>
   <si>
     <t>Elisxeneth Tovar Mutis</t>
-  </si>
-  <si>
-    <t>Pedro Nuñes</t>
-  </si>
-  <si>
-    <t>María Calderon</t>
-  </si>
-  <si>
-    <t>Soniá Chaparro</t>
-  </si>
-  <si>
-    <t>Juana Nicól</t>
   </si>
 </sst>
 </file>
@@ -365,11 +353,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -387,37 +377,8 @@
         <v>1112467079</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>123254168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>456897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>468798</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>46798952</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
